--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2573.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2573.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9407987650825744</v>
+        <v>0.6223145127296448</v>
       </c>
       <c r="B1">
-        <v>1.465072953801943</v>
+        <v>1.880174040794373</v>
       </c>
       <c r="C1">
-        <v>3.470076839481471</v>
+        <v>6.684037208557129</v>
       </c>
       <c r="D1">
-        <v>2.177576120837906</v>
+        <v>1.673266887664795</v>
       </c>
       <c r="E1">
-        <v>0.839181371651069</v>
+        <v>0.8020159006118774</v>
       </c>
     </row>
   </sheetData>
